--- a/results/I3_N5_M3_T15_C200_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T15_C200_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>765.6842378469689</v>
+        <v>474.7142380949223</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.524964760722089</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.524964760722089</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>599.6199997520465</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.35</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,17 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.069516742254631</v>
+        <v>6.579377207014334</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.175076273160455</v>
+        <v>9.684936737920157</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.86531573162986</v>
+        <v>12.37517619638957</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.53229921552293</v>
+        <v>12.04215968028263</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.61204927984102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.61204927984102</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.420622792985677</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +983,20 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.5199999999994</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.7649999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>134.9399999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>139.9649999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.1299999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>245.8150000000005</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>265.4150000000004</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>258.4900000000005</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>265.8750000000004</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>264.2150000000004</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>178.4950000000001</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>189.2100000000002</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>177.3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.2850000000001</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>189.6300000000001</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>38.72499999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>42.39499999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>38.17499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>41.26499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>245.8150000000005</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>265.4150000000004</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>258.4900000000005</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>265.8750000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>264.2150000000004</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>45.81500000000045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>65.41499996185303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>58.49000000000046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>65.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>64.21499991416931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
